--- a/public/downloads/Uterine cancer-LncRNA G4s data.xlsx
+++ b/public/downloads/Uterine cancer-LncRNA G4s data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubham/Research Material/2. Project 2 - LncRNA-Cancer Database/2. Data with 16 cancers (including pancreatic cancer)/5. Duplicates removed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubham/Desktop/Database/Received/5. Duplicates removed &amp; formatted_18.12.2023/Me/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E7D2D-A785-1E44-8DA3-065B5363948B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6709B4E-666D-B646-B3B5-B0D86E89C250}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="24480" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,6 +79,39 @@
     <t>REVIEWED</t>
   </si>
   <si>
+    <t>OGFRP1</t>
+  </si>
+  <si>
+    <t>qPCR, Western blot, in vitro knockdown etc.</t>
+  </si>
+  <si>
+    <t>Opioid Growth Factor Receptor Pseudogene 1</t>
+  </si>
+  <si>
+    <t>NR_036498.1</t>
+  </si>
+  <si>
+    <t>VALIDATED</t>
+  </si>
+  <si>
+    <t>PubMed ID</t>
+  </si>
+  <si>
+    <t>QGRS Mapper Output, Max length - 45, Min G-group - 2</t>
+  </si>
+  <si>
+    <t>G4 Hunter Output, Window - 45, Threshold: 0.9</t>
+  </si>
+  <si>
+    <t>G4 Hunter Output, Window - 45, Threshold: 1.4</t>
+  </si>
+  <si>
+    <t>Gestational Choriocarcinoma</t>
+  </si>
+  <si>
+    <t>differentially expressed</t>
+  </si>
+  <si>
     <t>38, 37, 12</t>
   </si>
   <si>
@@ -97,27 +130,12 @@
     <t>11, 11, 0</t>
   </si>
   <si>
-    <t>12, 12, 0</t>
+    <t>1, 1, 0</t>
   </si>
   <si>
     <t>0, 0, 0</t>
   </si>
   <si>
-    <t>OGFRP1</t>
-  </si>
-  <si>
-    <t>qPCR, Western blot, in vitro knockdown etc.</t>
-  </si>
-  <si>
-    <t>Opioid Growth Factor Receptor Pseudogene 1</t>
-  </si>
-  <si>
-    <t>NR_036498.1</t>
-  </si>
-  <si>
-    <t>VALIDATED</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -134,24 +152,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>PubMed ID</t>
-  </si>
-  <si>
-    <t>QGRS Mapper Output, Max length - 45, Min G-group - 2</t>
-  </si>
-  <si>
-    <t>G4 Hunter Output, Window - 45, Threshold: 0.9</t>
-  </si>
-  <si>
-    <t>G4 Hunter Output, Window - 45, Threshold: 1.4</t>
-  </si>
-  <si>
-    <t>Gestational Choriocarcinoma</t>
-  </si>
-  <si>
-    <t>differentially expressed</t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -206,6 +206,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -513,7 +516,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -565,19 +568,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -635,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -658,55 +661,55 @@
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>25</v>
+      <c r="J3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>32233835</v>
@@ -715,49 +718,49 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
